--- a/medicine/Enfance/Lukas_Hartmann/Lukas_Hartmann.xlsx
+++ b/medicine/Enfance/Lukas_Hartmann/Lukas_Hartmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lukas Hartmann, né Hans-Rudolf Lehmann le 29 août 1944, est un romancier et auteur de littérature jeunesse suisse, d'expression allemande. 
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lukas Hartmann est né sous le nom de Hans-Rudolf Lehmann. Sa mère était une fille d'agriculteur, et son père, cordonnier, a travaillé par la suite comme postier auxiliaire, puis chef de département à la Poste suisse. La mère avait une fibre artistique qu'elle a transmise à ses deux fils. Le cadet, Jürg est devenu journaliste, et dirige l'école de journalisme du Groupe Ringier. Lukas Hartmann a écrit ses premières histoires à l'âge de 13 ans. Après une formation pédagogique (allemand, histoire, musique) il enseigne comme instituteur, puis reprend des études de psychologie (sans diplôme), exerçant ensuite les fonctions de travailleur social, journaliste et écrivain[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lukas Hartmann est né sous le nom de Hans-Rudolf Lehmann. Sa mère était une fille d'agriculteur, et son père, cordonnier, a travaillé par la suite comme postier auxiliaire, puis chef de département à la Poste suisse. La mère avait une fibre artistique qu'elle a transmise à ses deux fils. Le cadet, Jürg est devenu journaliste, et dirige l'école de journalisme du Groupe Ringier. Lukas Hartmann a écrit ses premières histoires à l'âge de 13 ans. Après une formation pédagogique (allemand, histoire, musique) il enseigne comme instituteur, puis reprend des études de psychologie (sans diplôme), exerçant ensuite les fonctions de travailleur social, journaliste et écrivain. 
 Un film a été tiré de ses romans Anna - annA et Pestalozzis Berg.
-La grand-mère de Hartmann a été une enfant placée, aussi Hartmann soutient-il l’initiative populaire « réparation de l'injustice faite aux enfants placés de force et aux victimes de mesures de coercition prises à des fins d'assistance (initiative sur la réparation) » et son contre-projet indirect (loi fédérale sur les mesures de coercition à des fins d'assistance et les placements extrafamiliaux antérieurs à 1981)[2]. Publié en avril 2018, son roman historique Ein Bild von Lydia (Un portrait de Lydia) retrace la vie douloureuse de Lydia Welti-Escher[3].
-Il est l'époux en secondes noces de la conseillère fédérale Simonetta Sommaruga[4],[5],[6].
+La grand-mère de Hartmann a été une enfant placée, aussi Hartmann soutient-il l’initiative populaire « réparation de l'injustice faite aux enfants placés de force et aux victimes de mesures de coercition prises à des fins d'assistance (initiative sur la réparation) » et son contre-projet indirect (loi fédérale sur les mesures de coercition à des fins d'assistance et les placements extrafamiliaux antérieurs à 1981). Publié en avril 2018, son roman historique Ein Bild von Lydia (Un portrait de Lydia) retrace la vie douloureuse de Lydia Welti-Escher.
+Il est l'époux en secondes noces de la conseillère fédérale Simonetta Sommaruga.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Quelques prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1986 : (international) « Honour List »[7] de l'IBBY pour Anna-annA
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1986 : (international) « Honour List » de l'IBBY pour Anna-annA
 1995 : Prix du livre de jeunesse suisse pour So eine lange Nase
 2010 : Grand prix de littérature de la ville et canton de Berne</t>
         </is>
@@ -577,7 +593,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Romans
 1978 : Pestalozzis Berg. Zytglogge, Gümligen  (ISBN 978-3-257-24023-8).
@@ -626,7 +644,9 @@
           <t>Radio</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1976 : Em Pfarrer sy Scheidig for Schweizer Radio DRS.
 1984 : Auf dem Scherbenberg for DRS.</t>
